--- a/biology/Zoologie/Hemipneustes/Hemipneustes.xlsx
+++ b/biology/Zoologie/Hemipneustes/Hemipneustes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemipneustes est un  genre éteint d'oursins irréguliers de la famille des Hemipneustidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers, marqués par une structure holastéroïde habituelle ovoïde, sans Lanterne d'Aristote.
 Le disque apical porte 4 gonopores. Les hydropores sont éparpillés sur toutes les 4 plaques génitales et les 3 plaques oculaires antérieures.
@@ -520,12 +534,47 @@
 Les plaques du plastron sont protosternes, avec la plaque labrale s'étendant jusqu'à la 2e plaque sternale.
 Le périprocte est inframarginal, bien visible en vue orale, et entouré de deux protubérances subanales.
 La tuberculation aborale est fine et homogène.
-Ces oursins ne présentent pas de fasciole[1].
-Ce genre a vécu et s'est éteint au Crétacé supérieur (Campanien-Maastrichtien)[1].
-Taxinomie
-Ce genre a été décrit en 1835 par le zoologiste suisse Louis Agassiz, avec comme espèce-type Spatangus striato-radiatus Leske, 1778, devenue depuis Hemipneustes striatoradiatus (Leske, 1778).
+Ces oursins ne présentent pas de fasciole.
+Ce genre a vécu et s'est éteint au Crétacé supérieur (Campanien-Maastrichtien).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hemipneustes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemipneustes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1835 par le zoologiste suisse Louis Agassiz, avec comme espèce-type Spatangus striato-radiatus Leske, 1778, devenue depuis Hemipneustes striatoradiatus (Leske, 1778).
 Comme souvent avec les oursins fossiles, la taxinomie de ce genre est encore très incomplètement harmonisée, et les différentes bases de données divergent largement quant aux espèces à y inclure, avec des lacunes évidentes.
-D'autres sources ponctuelles ajoutent d'autres espèces, comme le Muséum national d'histoire naturelle qui recense dans ses collections des fossiles de Hemipneustes africanus Deshayes In Agassiz &amp; Desor, 1847, Hemipneustes arnaudi Cotteau, 1892, et Hemipneustes leymeriei Hébert, 1875[3].
+D'autres sources ponctuelles ajoutent d'autres espèces, comme le Muséum national d'histoire naturelle qui recense dans ses collections des fossiles de Hemipneustes africanus Deshayes In Agassiz &amp; Desor, 1847, Hemipneustes arnaudi Cotteau, 1892, et Hemipneustes leymeriei Hébert, 1875.
 			Hemipneustes leymeriei
 			Hemipneustes oculatus
 </t>
